--- a/raw data/Lines.xlsx
+++ b/raw data/Lines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web-projects\baltic-rails-leaflet\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D8378-F4F0-44F4-BB89-4A88C13F710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C523E-1706-48B4-8166-35065DA6D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="107">
   <si>
     <t>Line ID</t>
   </si>
@@ -330,6 +330,30 @@
   </si>
   <si>
     <t>Southern section rebuilt</t>
+  </si>
+  <si>
+    <t>Türi—Paide—Tamsalu</t>
+  </si>
+  <si>
+    <t>Extension to Tamsalu built 1915</t>
+  </si>
+  <si>
+    <t>Narva—Musta</t>
+  </si>
+  <si>
+    <t>Rail line between Auvere and power plant dismantled</t>
+  </si>
+  <si>
+    <t>Sonda—Mustvee</t>
+  </si>
+  <si>
+    <t>~2km rebuilt as a museum railway</t>
+  </si>
+  <si>
+    <t>Rakvere—Kunda</t>
+  </si>
+  <si>
+    <t>Tallinn—Narva</t>
   </si>
 </sst>
 </file>
@@ -591,10 +615,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1966,6 +1990,130 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1972</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>41</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1969</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>42</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1926</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1973</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1870</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H58" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>110</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1870</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H59" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/raw data/Lines.xlsx
+++ b/raw data/Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web-projects\baltic-rails-leaflet\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C523E-1706-48B4-8166-35065DA6D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5445535-BDE0-4BA6-8BEC-85784A933BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,15 +83,9 @@
     <t>Section from Rūjiena operating as Rīga—Rūjiena—Ipiķi</t>
   </si>
   <si>
-    <t>Valka-Gulbene</t>
-  </si>
-  <si>
     <t>Partially operational</t>
   </si>
   <si>
-    <t>Ape-Valga closed 1970, operating as Gulbene-Alūksne</t>
-  </si>
-  <si>
     <t>Ainaži—Valmiera—Smiltene</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>Operational</t>
   </si>
   <si>
-    <t>Rīga—Rūjiena—Ipiķi</t>
-  </si>
-  <si>
-    <t>Operating as Rīga-Skulte</t>
-  </si>
-  <si>
     <t>Ieriķi—Abrene</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t>Jelgava—Liepāja</t>
   </si>
   <si>
-    <t>Most stations not served siince 2001, daily service restarted 2023</t>
-  </si>
-  <si>
     <t>Aizpute—Skrunda—Saldus</t>
   </si>
   <si>
@@ -158,9 +143,6 @@
     <t>Freight only</t>
   </si>
   <si>
-    <t>Dismantled between Ālande and Priekule, freight only</t>
-  </si>
-  <si>
     <t>Priekule—Bajorai</t>
   </si>
   <si>
@@ -221,9 +203,6 @@
     <t>Madona—Lubana</t>
   </si>
   <si>
-    <t>Cargo traffic closed 1990; at Meirāni becomes route P82</t>
-  </si>
-  <si>
     <t>Pakalnieši—Kūdupe</t>
   </si>
   <si>
@@ -233,21 +212,12 @@
     <t>Daugavpils—Kārsava—Abrene</t>
   </si>
   <si>
-    <t>Until 2015, stops for trains to St. Petersburg</t>
-  </si>
-  <si>
     <t>Jelgava—Meitene—Šiauliai</t>
   </si>
   <si>
-    <t>Served only by international express train</t>
-  </si>
-  <si>
     <t>Daugavpils—Kurcums—Turmantas</t>
   </si>
   <si>
-    <t>Vilnius-Turmantas-Daugavpils between 2017 and 2020</t>
-  </si>
-  <si>
     <t>Daugavpils—Eglaine—Panevėžys</t>
   </si>
   <si>
@@ -308,42 +278,21 @@
     <t>Rapla—Virtsu</t>
   </si>
   <si>
-    <t>Full line service retracted 2001</t>
-  </si>
-  <si>
-    <t>Select stops closed during renovations; undergoing modernization</t>
-  </si>
-  <si>
     <t>Tallinn—Tartu—Valga</t>
   </si>
   <si>
-    <t>Tallinn—Keila—Haapsalu</t>
-  </si>
-  <si>
-    <t>Traffic restored to Turba</t>
-  </si>
-  <si>
     <t>Liiva—Vääna</t>
   </si>
   <si>
     <t>Tapa—Tartu—Koidula</t>
   </si>
   <si>
-    <t>Southern section rebuilt</t>
-  </si>
-  <si>
     <t>Türi—Paide—Tamsalu</t>
   </si>
   <si>
     <t>Extension to Tamsalu built 1915</t>
   </si>
   <si>
-    <t>Narva—Musta</t>
-  </si>
-  <si>
-    <t>Rail line between Auvere and power plant dismantled</t>
-  </si>
-  <si>
     <t>Sonda—Mustvee</t>
   </si>
   <si>
@@ -354,6 +303,57 @@
   </si>
   <si>
     <t>Tallinn—Narva</t>
+  </si>
+  <si>
+    <t>Valka-Alūksne</t>
+  </si>
+  <si>
+    <t>(Rīga—)Skulte—Rūjiena—Ipiķi</t>
+  </si>
+  <si>
+    <t>Gulbene-Alūksne still operating</t>
+  </si>
+  <si>
+    <t>Rīga—Skulte still operating</t>
+  </si>
+  <si>
+    <t>Daily express service</t>
+  </si>
+  <si>
+    <t>Dismantled between Ālande and Priekule</t>
+  </si>
+  <si>
+    <t>Cargo traffic closed 1990</t>
+  </si>
+  <si>
+    <t>Until 2015 - select stations for international traffic</t>
+  </si>
+  <si>
+    <t>International express service only</t>
+  </si>
+  <si>
+    <t>Regular service between 2017 and 2020</t>
+  </si>
+  <si>
+    <t>Limited service on Jõgeva—Tartu—Valga</t>
+  </si>
+  <si>
+    <t>Southern section rebuilt, seasonal service to Piusa</t>
+  </si>
+  <si>
+    <t>Seasonal service to Piusa from Koidula</t>
+  </si>
+  <si>
+    <t>(Tallinn—)Turba—Keila—Haapsalu</t>
+  </si>
+  <si>
+    <t>Traffic restored to Turba, reconstruction planned but not scheduled</t>
+  </si>
+  <si>
+    <t>(Narva—)Auvere—Musta</t>
+  </si>
+  <si>
+    <t>Narva—Auvere section exists with limited service</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1">
         <v>1915</v>
@@ -747,13 +747,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>1973</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>1902</v>
@@ -779,7 +779,7 @@
         <v>2000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>45296</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>1911</v>
@@ -814,7 +814,7 @@
         <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>1889</v>
@@ -823,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>2019</v>
@@ -838,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1">
         <v>1937</v>
@@ -847,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>2005</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>1902</v>
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>1947</v>
@@ -903,7 +903,7 @@
         <v>2000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>1937</v>
@@ -929,7 +929,7 @@
         <v>2009</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>1900</v>
@@ -955,7 +955,7 @@
         <v>1964</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>1928</v>
@@ -975,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1">
         <v>2023</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>45301</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>1900</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -1016,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>1916</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1031,7 +1031,7 @@
         <v>1960</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>1871</v>
@@ -1051,13 +1051,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1">
         <v>2012</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>45303</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>1915</v>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
         <v>2001</v>
@@ -1092,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>1928</v>
@@ -1107,7 +1107,7 @@
         <v>1996</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
         <v>1935</v>
@@ -1133,7 +1133,7 @@
         <v>1974</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>45304</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>1932</v>
@@ -1159,7 +1159,7 @@
         <v>1946</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>1916</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1185,7 +1185,7 @@
         <v>1963</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>1904</v>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1">
         <v>2010</v>
@@ -1220,13 +1220,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>1920</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1235,7 +1235,7 @@
         <v>1963</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>0</v>
@@ -1246,13 +1246,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>1916</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1261,7 +1261,7 @@
         <v>1963</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>1932</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         <v>1963</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
         <v>1873</v>
@@ -1307,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1">
         <v>2010</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1">
         <v>1916</v>
@@ -1339,7 +1339,7 @@
         <v>1963</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1">
         <v>1904</v>
@@ -1359,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1">
         <v>1998</v>
@@ -1374,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
         <v>1904</v>
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1">
         <v>2000</v>
@@ -1398,7 +1398,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1">
         <v>1935</v>
@@ -1413,7 +1413,7 @@
         <v>2007</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1" t="b">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1">
         <v>1934</v>
@@ -1439,7 +1439,7 @@
         <v>1944</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H32" s="1" t="b">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1">
         <v>1860</v>
@@ -1459,13 +1459,13 @@
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1">
         <v>1999</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1">
         <v>1916</v>
@@ -1485,13 +1485,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1">
         <v>2024</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1">
         <v>1862</v>
@@ -1511,13 +1511,13 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F35" s="1">
         <v>2020</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1">
         <v>1873</v>
@@ -1537,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1">
         <v>2022</v>
@@ -1552,7 +1552,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
         <v>1889</v>
@@ -1561,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1">
         <v>2023</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1">
         <v>1904</v>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F38" s="1">
         <v>2015</v>
@@ -1602,7 +1602,7 @@
         <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1">
         <v>1861</v>
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1">
         <v>2015</v>
@@ -1626,7 +1626,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1">
         <v>1901</v>
@@ -1635,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1">
         <v>2024</v>
@@ -1650,7 +1650,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1">
         <v>1903</v>
@@ -1659,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1">
         <v>2024</v>
@@ -1674,13 +1674,13 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1">
         <v>1916</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
@@ -1698,13 +1698,13 @@
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1">
         <v>1915</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
@@ -1713,7 +1713,7 @@
         <v>1972</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -1724,13 +1724,13 @@
         <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1">
         <v>1915</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
@@ -1748,13 +1748,13 @@
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1">
         <v>1915</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
@@ -1772,7 +1772,7 @@
         <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1">
         <v>1887</v>
@@ -1781,13 +1781,13 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1">
         <v>2024</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1">
         <v>1897</v>
@@ -1822,7 +1822,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1">
         <v>1901</v>
@@ -1831,13 +1831,13 @@
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1">
         <v>1973</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C49" s="1">
         <v>1928</v>
@@ -1857,13 +1857,13 @@
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F49" s="1">
         <v>2021</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1">
         <v>1928</v>
@@ -1897,7 +1897,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C51" s="1">
         <v>1931</v>
@@ -1920,7 +1920,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1">
         <v>1905</v>
@@ -1929,13 +1929,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1">
         <v>2019</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1">
         <v>1913</v>
@@ -1969,7 +1969,7 @@
         <v>109</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1">
         <v>1876</v>
@@ -1978,13 +1978,13 @@
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F54" s="1">
         <v>2011</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C55" s="1">
         <v>1900</v>
@@ -2010,7 +2010,7 @@
         <v>1972</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C56" s="1">
         <v>1969</v>
@@ -2036,7 +2036,7 @@
         <v>2001</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1">
         <v>1926</v>
@@ -2062,7 +2062,7 @@
         <v>1973</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C58" s="1">
         <v>1870</v>
@@ -2082,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F58" s="1">
         <v>2019</v>
@@ -2096,7 +2096,7 @@
         <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1">
         <v>1870</v>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1">
         <v>2021</v>
